--- a/SchedulingData/dynamic11/pso/scheduling1_10.xlsx
+++ b/SchedulingData/dynamic11/pso/scheduling1_10.xlsx
@@ -462,78 +462,78 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>42.7</v>
+        <v>43.4</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>76.3</v>
+        <v>77.26000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>25.52</v>
+        <v>25.944</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>77.26000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>41.32</v>
+        <v>128.76</v>
       </c>
       <c r="E4" t="n">
-        <v>26.568</v>
+        <v>22.424</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>49.12</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>25.788</v>
+        <v>25.84</v>
       </c>
     </row>
     <row r="6">
@@ -542,117 +542,117 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>76.3</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>153.06</v>
+        <v>49.12</v>
       </c>
       <c r="E6" t="n">
-        <v>21.464</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>41.32</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>96</v>
+        <v>56.7</v>
       </c>
       <c r="E7" t="n">
-        <v>22.72</v>
+        <v>25.52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>43.4</v>
       </c>
       <c r="D8" t="n">
-        <v>75</v>
+        <v>98.08</v>
       </c>
       <c r="E8" t="n">
-        <v>25.2</v>
+        <v>22.512</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.5</v>
+        <v>55</v>
       </c>
       <c r="E9" t="n">
-        <v>21.04</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="D10" t="n">
-        <v>170.38</v>
+        <v>95.72</v>
       </c>
       <c r="E10" t="n">
-        <v>18.872</v>
+        <v>21.768</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>49.12</v>
+        <v>95.72</v>
       </c>
       <c r="D11" t="n">
-        <v>104.78</v>
+        <v>164.12</v>
       </c>
       <c r="E11" t="n">
-        <v>22.332</v>
+        <v>18.048</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -660,51 +660,51 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>147.5</v>
+        <v>164.12</v>
       </c>
       <c r="D12" t="n">
-        <v>224.08</v>
+        <v>230.4</v>
       </c>
       <c r="E12" t="n">
-        <v>17.512</v>
+        <v>14.52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>42.7</v>
+        <v>56.7</v>
       </c>
       <c r="D13" t="n">
-        <v>101.3</v>
+        <v>105.16</v>
       </c>
       <c r="E13" t="n">
-        <v>24.16</v>
+        <v>22.784</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>224.08</v>
+        <v>49.12</v>
       </c>
       <c r="D14" t="n">
-        <v>294.88</v>
+        <v>124.82</v>
       </c>
       <c r="E14" t="n">
-        <v>13.032</v>
+        <v>21.308</v>
       </c>
     </row>
     <row r="15">
@@ -713,17 +713,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>104.78</v>
+        <v>105.16</v>
       </c>
       <c r="D15" t="n">
-        <v>158.28</v>
+        <v>171.16</v>
       </c>
       <c r="E15" t="n">
-        <v>18.612</v>
+        <v>18.304</v>
       </c>
     </row>
     <row r="16">
@@ -732,36 +732,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>153.06</v>
+        <v>124.82</v>
       </c>
       <c r="D16" t="n">
-        <v>210.56</v>
+        <v>178.58</v>
       </c>
       <c r="E16" t="n">
-        <v>18.824</v>
+        <v>18.572</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>98.08</v>
       </c>
       <c r="D17" t="n">
-        <v>76.7</v>
+        <v>144.32</v>
       </c>
       <c r="E17" t="n">
-        <v>25.52</v>
+        <v>19.028</v>
       </c>
     </row>
     <row r="18">
@@ -770,36 +770,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>76.7</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>137.1</v>
+        <v>117.1</v>
       </c>
       <c r="E18" t="n">
-        <v>21.62</v>
+        <v>23.08</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>170.38</v>
+        <v>178.58</v>
       </c>
       <c r="D19" t="n">
-        <v>233.98</v>
+        <v>235.38</v>
       </c>
       <c r="E19" t="n">
-        <v>14.132</v>
+        <v>15.492</v>
       </c>
     </row>
     <row r="20">
@@ -808,17 +808,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>233.98</v>
+        <v>144.32</v>
       </c>
       <c r="D20" t="n">
-        <v>282.3</v>
+        <v>213.64</v>
       </c>
       <c r="E20" t="n">
-        <v>10.94</v>
+        <v>14.716</v>
       </c>
     </row>
     <row r="21">
@@ -827,174 +827,174 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>158.28</v>
+        <v>171.16</v>
       </c>
       <c r="D21" t="n">
-        <v>219.52</v>
+        <v>219.18</v>
       </c>
       <c r="E21" t="n">
-        <v>15.128</v>
+        <v>15.132</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>137.1</v>
+        <v>128.76</v>
       </c>
       <c r="D22" t="n">
-        <v>197.48</v>
+        <v>190.42</v>
       </c>
       <c r="E22" t="n">
-        <v>18.672</v>
+        <v>18.368</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>210.56</v>
+        <v>190.42</v>
       </c>
       <c r="D23" t="n">
-        <v>269.88</v>
+        <v>248.74</v>
       </c>
       <c r="E23" t="n">
-        <v>14.512</v>
+        <v>15.176</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>101.3</v>
+        <v>117.1</v>
       </c>
       <c r="D24" t="n">
-        <v>148.26</v>
+        <v>162.88</v>
       </c>
       <c r="E24" t="n">
-        <v>20.104</v>
+        <v>20.132</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>148.26</v>
+        <v>162.88</v>
       </c>
       <c r="D25" t="n">
-        <v>215.56</v>
+        <v>231.58</v>
       </c>
       <c r="E25" t="n">
-        <v>16.464</v>
+        <v>15.392</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>215.56</v>
+        <v>231.58</v>
       </c>
       <c r="D26" t="n">
-        <v>266.96</v>
+        <v>296.68</v>
       </c>
       <c r="E26" t="n">
-        <v>12.944</v>
+        <v>11.972</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>197.48</v>
+        <v>235.38</v>
       </c>
       <c r="D27" t="n">
-        <v>265.3</v>
+        <v>280.78</v>
       </c>
       <c r="E27" t="n">
-        <v>15.5</v>
+        <v>11.592</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>219.52</v>
+        <v>248.74</v>
       </c>
       <c r="D28" t="n">
-        <v>289.92</v>
+        <v>313.42</v>
       </c>
       <c r="E28" t="n">
-        <v>11.708</v>
+        <v>11.328</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>265.3</v>
+        <v>213.64</v>
       </c>
       <c r="D29" t="n">
-        <v>323.86</v>
+        <v>274.5</v>
       </c>
       <c r="E29" t="n">
-        <v>12.764</v>
+        <v>11.26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1002,32 +1002,32 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>282.3</v>
+        <v>230.4</v>
       </c>
       <c r="D30" t="n">
-        <v>337.84</v>
+        <v>290.84</v>
       </c>
       <c r="E30" t="n">
-        <v>8.476000000000001</v>
+        <v>12.056</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>294.88</v>
+        <v>219.18</v>
       </c>
       <c r="D31" t="n">
-        <v>343.44</v>
+        <v>266.68</v>
       </c>
       <c r="E31" t="n">
-        <v>10.296</v>
+        <v>12.492</v>
       </c>
     </row>
   </sheetData>
